--- a/forms/contact/clinic-create.xlsx
+++ b/forms/contact/clinic-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="301">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">db-object</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by</t>
+    <t xml:space="preserve">/data/inputs/user/contact_id</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
@@ -162,7 +162,7 @@
     <t xml:space="preserve">Role de l’utilisateur</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by_role</t>
+    <t xml:space="preserve">/data/inputs/contact/role</t>
   </si>
   <si>
     <t xml:space="preserve">username</t>
@@ -183,19 +183,25 @@
     <t xml:space="preserve">Nom du Contact</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by_name</t>
+    <t xml:space="preserve">/data/inputs/contact/name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concat(/data/inputs/contact/external_id,'')</t>
   </si>
   <si>
     <t xml:space="preserve">external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code unique de l’utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/contact/meta/created_by_external_id</t>
+    <t xml:space="preserve">Unique code: &lt;br&gt; &lt;b&gt;${extid}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code utilisateur: &lt;br&gt; &lt;b&gt;${extid}&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Primary Caregiver</t>
@@ -229,9 +235,6 @@
   </si>
   <si>
     <t xml:space="preserve">PARENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculate</t>
   </si>
   <si>
     <t xml:space="preserve">place_contact</t>
@@ -553,31 +556,22 @@
     <t xml:space="preserve">created_by</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(/data/inputs/user/contact_id,'')</t>
-  </si>
-  <si>
     <t xml:space="preserve">created_by_role</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(/data/inputs/contact/role,'')</t>
-  </si>
-  <si>
     <t xml:space="preserve">created_by_external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(/data/inputs/contact/external_id,'')</t>
+    <t xml:space="preserve">/data/inputs/contact/external_id</t>
   </si>
   <si>
     <t xml:space="preserve">created_by_name</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(/data/inputs/contact/name,'')</t>
-  </si>
-  <si>
     <t xml:space="preserve">created_by_place</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(/data/inputs/user/facility_id,'')</t>
+    <t xml:space="preserve">/data/inputs/user/facility_id</t>
   </si>
   <si>
     <t xml:space="preserve">geolocation</t>
@@ -677,21 +671,6 @@
   </si>
   <si>
     <t xml:space="preserve">pcime_info2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/inputs/user/contact_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/inputs/contact/role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/inputs/contact/external_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/inputs/contact/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/inputs/user/facility_id</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span style="color:#888;"&gt;**Add another person by pressing the + button.** 
@@ -979,7 +958,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1030,6 +1009,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1199,7 +1184,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1248,15 +1233,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1272,11 +1257,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1284,27 +1273,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1316,11 +1309,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1348,11 +1341,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1476,10 +1469,10 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1710,7 +1703,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1734,7 +1727,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1752,7 +1745,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="11" t="b">
+      <c r="H12" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1780,148 +1773,124 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
+    <row r="14" s="11" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="L14" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="H14" s="4" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-    </row>
-    <row r="18" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+    </row>
+    <row r="19" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="19" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,13 +1898,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1945,55 +1914,64 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>18</v>
+      <c r="D21" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="N21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="7"/>
@@ -2002,373 +1980,373 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>76</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="P24" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+      <c r="P25" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="D27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="E27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="I27" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="J27" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="K27" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="N27" s="20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="O27" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="16" t="s">
+    </row>
+    <row r="28" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="14" t="s">
+      <c r="C28" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="D28" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="J28" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="K28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="N28" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="P27" s="16" t="n">
+      <c r="O28" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="17" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="16" t="s">
+    <row r="29" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="L29" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="7" t="s">
+    </row>
+    <row r="30" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="P29" s="7"/>
-    </row>
-    <row r="30" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
+      <c r="D30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="E30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="B31" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="C31" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="D31" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P30" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
+      <c r="E31" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="C32" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="D32" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="E32" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="I32" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="J32" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="N31" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O31" s="22" t="s">
+      <c r="K32" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="23" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="32" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
+      <c r="O32" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="21" t="s">
+      <c r="B33" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="21" t="s">
+      <c r="D33" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="I33" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="J33" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="N32" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="O32" s="22" t="s">
+      <c r="K33" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+      <c r="O33" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="21" t="s">
+      <c r="B34" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="21" t="s">
+      <c r="D34" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="I34" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="J34" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="N33" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="O33" s="22" t="s">
+      <c r="K34" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="N34" s="23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="34" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="O34" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="M34" s="10"/>
-      <c r="P34" s="10"/>
     </row>
     <row r="35" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="I35" s="10"/>
@@ -2380,32 +2358,36 @@
       <c r="M35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="7" t="s">
+    <row r="36" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M36" s="7"/>
-      <c r="P36" s="7"/>
+      <c r="M36" s="10"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2414,238 +2396,234 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="7" t="s">
-        <v>141</v>
+      <c r="L37" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="M37" s="7"/>
       <c r="P37" s="7"/>
     </row>
     <row r="38" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>144</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="F38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="L38" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="M38" s="7"/>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="s">
+    <row r="39" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="P39" s="7"/>
+    </row>
+    <row r="40" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="B40" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="D40" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="E40" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="N39" s="21" t="s">
+      <c r="L40" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="O39" s="21" t="s">
+      <c r="N40" s="22" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="40" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="O40" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C41" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="L40" s="12" t="s">
+      <c r="D41" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="L41" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="N41" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O41" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="N40" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="O40" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="P41" s="7"/>
-    </row>
-    <row r="42" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16" t="s">
+    </row>
+    <row r="42" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="C43" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="D43" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="I43" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="J43" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="N42" s="23" t="s">
+      <c r="K43" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="O42" s="23" t="s">
+      <c r="N43" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="O43" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K44" s="17" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="43" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="16" t="s">
+      <c r="N44" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="N43" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="O43" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" s="24" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
+      <c r="O44" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="24" t="s">
+      <c r="B45" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="C45" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="D45" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-    </row>
-    <row r="45" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18" t="s">
+      <c r="F45" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+    </row>
+    <row r="46" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="P46" s="7"/>
-    </row>
-    <row r="47" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="P47" s="7"/>
     </row>
     <row r="48" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -2653,23 +2631,23 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="M48" s="7"/>
       <c r="P48" s="7"/>
     </row>
     <row r="49" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -2677,23 +2655,23 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="M49" s="7"/>
       <c r="P49" s="7"/>
     </row>
     <row r="50" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -2701,23 +2679,23 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M50" s="7"/>
       <c r="P50" s="7"/>
     </row>
     <row r="51" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -2725,69 +2703,62 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="M51" s="7"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="s">
+    <row r="52" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M52" s="7"/>
+      <c r="P52" s="7"/>
+    </row>
+    <row r="53" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="18"/>
-    </row>
-    <row r="53" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="19"/>
+    </row>
+    <row r="54" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="L54" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="L53" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+    </row>
+    <row r="55" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
@@ -2795,224 +2766,222 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="13"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-    </row>
-    <row r="57" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+    </row>
+    <row r="58" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="G58" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="C59" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="7" t="s">
+      <c r="D59" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="E59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="O59" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="O58" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-    </row>
-    <row r="59" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="14"/>
+    </row>
+    <row r="60" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="P60" s="14"/>
-    </row>
-    <row r="61" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="P61" s="14"/>
-    </row>
-    <row r="62" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>192</v>
-      </c>
+    <row r="61" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="P61" s="15"/>
+    </row>
+    <row r="62" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="P62" s="15"/>
     </row>
     <row r="63" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="P64" s="7"/>
-    </row>
-    <row r="65" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="D65" s="7" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O65" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="P65" s="7"/>
     </row>
     <row r="66" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -3022,55 +2991,64 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>18</v>
+      <c r="D67" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
+      <c r="G67" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M67" s="7"/>
-      <c r="P67" s="7"/>
+      <c r="N67" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="68" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="7"/>
@@ -3079,373 +3057,373 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M68" s="7"/>
       <c r="P68" s="7"/>
     </row>
-    <row r="69" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
+      <c r="L69" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="M69" s="7"/>
       <c r="P69" s="7"/>
     </row>
-    <row r="70" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
-      <c r="P70" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="P70" s="7"/>
     </row>
     <row r="71" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="P71" s="7"/>
-    </row>
-    <row r="72" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18" t="s">
+      <c r="P71" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="P72" s="7"/>
+    </row>
+    <row r="73" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="B73" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="C73" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="14" t="s">
+      <c r="D73" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I72" s="14" t="s">
+      <c r="E73" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J72" s="14" t="s">
+      <c r="I73" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K72" s="14" t="s">
+      <c r="J73" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="N72" s="19" t="s">
+      <c r="K73" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="O72" s="19" t="s">
+      <c r="N73" s="20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="73" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="14" t="s">
+      <c r="O73" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="16" t="s">
+    </row>
+    <row r="74" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I73" s="14" t="s">
+      <c r="C74" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J73" s="14" t="s">
+      <c r="D74" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I74" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="K73" s="14" t="s">
+      <c r="J74" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="N73" s="19" t="s">
+      <c r="K74" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O73" s="19" t="s">
+      <c r="N74" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="P73" s="16" t="n">
+      <c r="O74" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P74" s="17" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="74" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="16" t="s">
+    <row r="75" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D75" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="L75" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="B76" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="P75" s="7"/>
-    </row>
-    <row r="76" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="21" t="s">
+      <c r="D76" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="E76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="P76" s="7"/>
+    </row>
+    <row r="77" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="B77" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="C77" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F76" s="21" t="s">
+      <c r="D77" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P76" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="21" t="s">
+      <c r="E77" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P77" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="21" t="s">
+      <c r="B78" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="C78" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F77" s="21" t="s">
+      <c r="D78" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I77" s="21" t="s">
+      <c r="E78" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J77" s="22" t="s">
+      <c r="I78" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="K77" s="22" t="s">
+      <c r="J78" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="N77" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O77" s="22" t="s">
+      <c r="K78" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N78" s="23" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="78" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="21" t="s">
+      <c r="O78" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D78" s="21" t="s">
+      <c r="B79" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E78" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I78" s="21" t="s">
+      <c r="D79" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="J78" s="22" t="s">
+      <c r="I79" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="K78" s="22" t="s">
+      <c r="J79" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="N78" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="O78" s="22" t="s">
+      <c r="K79" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N79" s="23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="79" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="21" t="s">
+      <c r="O79" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" s="21" t="s">
+      <c r="B80" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E79" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I79" s="21" t="s">
+      <c r="D80" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F80" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="J79" s="22" t="s">
+      <c r="I80" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="22" t="s">
+      <c r="J80" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="N79" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="O79" s="22" t="s">
+      <c r="K80" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="N80" s="23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="80" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="10" t="s">
+      <c r="O80" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="M80" s="10"/>
-      <c r="P80" s="10"/>
     </row>
     <row r="81" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="I81" s="10"/>
@@ -3457,12 +3435,12 @@
       <c r="M81" s="10"/>
       <c r="P81" s="10"/>
     </row>
-    <row r="82" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>138</v>
+    <row r="82" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>18</v>
@@ -3470,23 +3448,23 @@
       <c r="D82" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M82" s="7"/>
-      <c r="P82" s="7"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c r="P82" s="10"/>
     </row>
     <row r="83" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>18</v>
@@ -3499,120 +3477,120 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
-      <c r="L83" s="7" t="s">
-        <v>141</v>
+      <c r="L83" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="M83" s="7"/>
       <c r="P83" s="7"/>
     </row>
     <row r="84" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
+      <c r="L84" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="M84" s="7"/>
       <c r="P84" s="7"/>
     </row>
-    <row r="85" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" s="21" t="s">
+    <row r="85" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="P85" s="7"/>
+    </row>
+    <row r="86" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="B86" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="21" t="n">
+      <c r="D86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E85" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F85" s="12" t="s">
+      <c r="E86" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="L86" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="N86" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O86" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="L85" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="N85" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="O85" s="21" t="s">
+      <c r="E87" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F87" s="24"/>
+      <c r="L87" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="N87" s="22" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="86" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F86" s="12"/>
-      <c r="L86" s="12" t="s">
+      <c r="O87" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="N86" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="O86" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="P87" s="7"/>
     </row>
     <row r="88" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -3623,23 +3601,21 @@
     </row>
     <row r="89" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>210</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
@@ -3647,131 +3623,133 @@
       <c r="M89" s="7"/>
       <c r="P89" s="7"/>
     </row>
-    <row r="90" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="16" t="s">
+    <row r="90" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="P90" s="7"/>
+    </row>
+    <row r="91" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="16" t="s">
+      <c r="B91" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="C91" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="I90" s="16" t="s">
+      <c r="D91" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="J90" s="16" t="s">
+      <c r="I91" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="K90" s="16" t="s">
+      <c r="J91" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="N90" s="23" t="s">
+      <c r="K91" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="O90" s="23" t="s">
+      <c r="N91" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="O91" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K92" s="17" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="91" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="16" t="s">
+      <c r="N92" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="J91" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="K91" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="N91" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="O91" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" s="24" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="24" t="s">
+      <c r="O92" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B92" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D92" s="24" t="s">
+      <c r="B93" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F92" s="24" t="s">
+      <c r="D93" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
-    </row>
-    <row r="93" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="18" t="s">
+      <c r="F93" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+    </row>
+    <row r="94" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="P93" s="7"/>
-    </row>
-    <row r="94" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
-      <c r="L94" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L94" s="7"/>
       <c r="M94" s="7"/>
       <c r="P94" s="7"/>
     </row>
     <row r="95" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>18</v>
@@ -3785,17 +3763,17 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="M95" s="7"/>
       <c r="P95" s="7"/>
     </row>
     <row r="96" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>18</v>
@@ -3809,17 +3787,17 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="M96" s="7"/>
       <c r="P96" s="7"/>
     </row>
     <row r="97" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>18</v>
@@ -3833,17 +3811,17 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="M97" s="7"/>
       <c r="P97" s="7"/>
     </row>
     <row r="98" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>18</v>
@@ -3857,246 +3835,269 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7" t="s">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="M98" s="7"/>
       <c r="P98" s="7"/>
     </row>
-    <row r="99" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="18" t="s">
+    <row r="99" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M99" s="7"/>
+      <c r="P99" s="7"/>
+    </row>
+    <row r="100" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B99" s="18"/>
-    </row>
-    <row r="100" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="19"/>
+    </row>
+    <row r="101" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="L101" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D100" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="L100" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B103" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C102" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D102" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="P102" s="13"/>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="P103" s="13"/>
-    </row>
-    <row r="104" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="C103" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="P103" s="14"/>
+    </row>
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="P104" s="14"/>
     </row>
     <row r="105" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="106" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="P106" s="14"/>
-    </row>
-    <row r="107" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="14"/>
-      <c r="P107" s="14"/>
-    </row>
-    <row r="108" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="s">
+    <row r="107" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="P107" s="15"/>
+    </row>
+    <row r="108" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="P108" s="15"/>
+    </row>
+    <row r="109" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="N108" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O108" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
+      <c r="B109" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L110" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="P110" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+    </row>
+    <row r="113" s="32" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="31"/>
+      <c r="L113" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="M113" s="31"/>
+      <c r="P113" s="31"/>
+    </row>
+    <row r="114" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M114" s="7"/>
+      <c r="N114" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O114" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L109" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P109" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="110" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L110" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="111" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-    </row>
-    <row r="112" s="30" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="M112" s="29"/>
-      <c r="P112" s="29"/>
-    </row>
-    <row r="113" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M113" s="7"/>
-      <c r="N113" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O113" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="114" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="s">
+    </row>
+    <row r="115" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4122,11 +4123,11 @@
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5092,7 +5093,7 @@
     <row r="1121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5123,12 +5124,12 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A5 A58 A115:A1048576 A60:A61 A16:A17 A55:A56 A86:A89 A40:A41 A34:A38 A77:A84 A47:A51 A94:A98 A29 A109:A113 A75 A102:A103 A19:A25 A64:A71">
+  <conditionalFormatting sqref="A1 A5 A59 A116:A1048576 A61:A62 A56:A57 A87:A90 A41:A42 A35:A39 A48:A52 A95:A99 A30 A110:A114 A76 A103:A104 A20:A26 A65:A72 A78:A85 A33 A17:A18">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106:A107 A74 A28">
+  <conditionalFormatting sqref="A107:A108 A75 A29">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"begin group"</formula>
     </cfRule>
@@ -5169,13 +5170,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -5183,269 +5184,269 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="C4" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C6" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C7" s="35" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="D7" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>247</v>
+        <v>239</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>240</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="D12" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="28" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C13" s="30" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="D13" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="7" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="35" t="s">
+      <c r="C14" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D14" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="B13" s="35" t="s">
+      <c r="C15" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="D15" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="7" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" s="35" t="s">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C17" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="C18" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D18" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="7" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="B17" s="35" t="s">
+      <c r="C19" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="D19" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>286</v>
+        <v>276</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>279</v>
       </c>
       <c r="V20" s="0"/>
       <c r="W20" s="0"/>
@@ -5493,16 +5494,16 @@
     </row>
     <row r="21" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>289</v>
+        <v>276</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>282</v>
       </c>
       <c r="V21" s="0"/>
       <c r="W21" s="0"/>
@@ -5550,16 +5551,16 @@
     </row>
     <row r="22" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>291</v>
+        <v>284</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>284</v>
       </c>
       <c r="V22" s="0"/>
       <c r="W22" s="0"/>
@@ -5607,16 +5608,16 @@
     </row>
     <row r="23" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>294</v>
+        <v>286</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>287</v>
       </c>
       <c r="V23" s="0"/>
       <c r="W23" s="0"/>
@@ -6680,27 +6681,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="H1" s="39"/>
+        <v>291</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="41"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -6722,25 +6723,25 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="39"/>
+        <v>296</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/forms/contact/clinic-create.xlsx
+++ b/forms/contact/clinic-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="290">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">Méthode de date de naissance souhaité</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">approx</t>
@@ -307,10 +307,10 @@
     <t xml:space="preserve">Date de naissance</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(../dob_method,'calendar')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.&lt;today()</t>
+    <t xml:space="preserve">../dob_method = 'calendar'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. &lt;= today()</t>
   </si>
   <si>
     <t xml:space="preserve">Date must be before today</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Âge</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(../dob_method,'approx')</t>
+    <t xml:space="preserve">../dob_method = 'approx'</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 0</t>
@@ -397,7 +397,7 @@
     <t xml:space="preserve">Est ce un patient ?</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../meta/created_by_role,'') !="chw"</t>
+    <t xml:space="preserve">../meta/created_by_role !="chw"</t>
   </si>
   <si>
     <t xml:space="preserve">code_w</t>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">Code de la personne</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../meta/created_by_role,'')!="chw" and concat(../code_type,'')='yes'</t>
+    <t xml:space="preserve">../meta/created_by_role != "chw" and ../code_type = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">regex(.,'^[A-Z]{6}-\d{9}$')</t>
@@ -424,7 +424,7 @@
     <t xml:space="preserve">code_x</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../meta/created_by_role,'')="chw"</t>
+    <t xml:space="preserve">../meta/created_by_role = "chw"</t>
   </si>
   <si>
     <t xml:space="preserve">regex(.,'^[A-Z]{0}\d{4}$')</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">code_y</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../meta/created_by_role,'') !="chw" and concat(../code_type,'')!='yes'</t>
+    <t xml:space="preserve">../meta/created_by_role !="chw" and ../code_type != 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">regex(.,'^[A-Z]{6}-\d{3}$')</t>
@@ -466,24 +466,6 @@
     <t xml:space="preserve">../external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">code_z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align:center;"&gt;&lt;b style="color:green;"&gt;Patient Code: &lt;/b&gt; &lt;b&gt;${code_z}&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align:center;"&gt;&lt;b style="color:green;"&gt;Code Patient: &lt;/b&gt; &lt;b&gt;${code_z}&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concat(../unique_code,'')!=''</t>
-  </si>
-  <si>
     <t xml:space="preserve">select_one roles</t>
   </si>
   <si>
@@ -493,7 +475,7 @@
     <t xml:space="preserve">Rôle</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../meta/created_by_role,'')!='chw'</t>
+    <t xml:space="preserve">../meta/created_by_role != 'chw'</t>
   </si>
   <si>
     <t xml:space="preserve">coalesce(../role_x,../role)</t>
@@ -586,45 +568,21 @@
     <t xml:space="preserve">concat(concat(/data/inputs/meta/location/lat,''),concat(/data/inputs/meta/location/long,''))</t>
   </si>
   <si>
-    <t xml:space="preserve">repeat-relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Household Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autres membres du ménage</t>
+    <t xml:space="preserve">repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press **+** button to add other Household Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appuyer sur le bouton &lt;b style ="font-size: 40px;"&gt; + &lt;/b&gt; pour ajouter un autre membre du ménage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin repeat</t>
   </si>
   <si>
     <t xml:space="preserve">child</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you want to register other household members now? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voulez-vous enregistrer les autres membres du ménage qui sont dans la cible?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make sure to register all children under 5 now. You can register other family members at a later time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assurez-vous d'enregistrer tous les enfants de moins de 5 ans et toutes les femmes enceintes ou qui viennent d’accoucher et les nouveau-nés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repeat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/repeat-relevant/child = 'yes'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin repeat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delimiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;hr style="margin:0 auto;"&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Person’s names</t>
   </si>
   <si>
@@ -634,13 +592,10 @@
     <t xml:space="preserve">format-date-time(if(not(selected( ../dob_method,'approx')),  ../dob_calendar, format-date-time( decimal-date-time( today() ) - (365.25 * ../age_years) - (30.5 * ../age_months ) - 0, "%Y-%m-%d" ) ),"%Y-%m-%d")</t>
   </si>
   <si>
-    <t xml:space="preserve">code_zz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align:center;"&gt;&lt;b&gt;Patient Code: &lt;/b&gt; &lt;b style="color:green;"&gt;${code_zz}&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align:center;"&gt;&lt;b&gt;Code Patient: &lt;/b&gt; &lt;b style="color:green;"&gt;${code_zz}&lt;/b&gt;&lt;/p&gt;</t>
+    <t xml:space="preserve">../meta/created_by_role != "chw"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../meta/created_by_role != "chw" and ../code_type != 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">select_one family_designation</t>
@@ -667,18 +622,28 @@
     <t xml:space="preserve">Précisez autre:</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../relationship_to_primary_caregiver,'')= 'other'</t>
+    <t xml:space="preserve">../relationship_to_primary_caregiver = 'other'</t>
   </si>
   <si>
     <t xml:space="preserve">pcime_info2</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;span style="color:#888;"&gt;**Add another person by pressing the + button.** 
-Remove this child by pressing the - button&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b style ="color: # 888;"&gt;Pour ajouter une autre personne, appuyez sur le bouton +&lt;br&gt;
-Retirez la en appuyant sur le bouton - &lt;/b&gt; </t>
+    <t xml:space="preserve">note_add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:#888;"&gt;Add another person by pressing the **+** button.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b style ="color: #888;"&gt;Pour ajouter une autre personne, appuyez sur le bouton &lt;b style ="font-size: 40px;"&gt;+&lt;/b&gt;&lt;/b&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:#888;"&gt;Remove this child by pressing the **-** button.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b style ="color: #888;"&gt;Supprimer cette page en appuyant sur le bouton &lt;b style ="font-size: 40px;"&gt;-&lt;/b&gt;&lt;/b&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">end repeat</t>
@@ -952,13 +917,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1012,12 +976,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF2E75B6"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1045,36 +1003,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1088,7 +1018,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,24 +1041,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB3CAC7"/>
-        <bgColor rgb="FFB2B2B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1184,7 +1096,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1209,39 +1121,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1257,27 +1149,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1285,23 +1157,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1309,11 +1173,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1341,11 +1205,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1353,7 +1213,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1367,17 +1227,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1415,7 +1265,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3CAC7"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1424,7 +1274,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF2E75B6"/>
-      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1445,10 +1295,10 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1470,9 +1320,9 @@
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="H77" activeCellId="0" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1482,7 +1332,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.39"/>
@@ -1577,15 +1427,15 @@
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1594,46 +1444,46 @@
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1646,12 +1496,24 @@
       <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1660,20 +1522,44 @@
       <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1682,12 +1568,24 @@
       <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1696,22 +1594,31 @@
       <c r="D10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="8" t="b">
+      <c r="H10" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1720,92 +1627,139 @@
       <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" s="11" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="12" t="b">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" s="11" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" s="11" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="L14" s="13" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="L15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -1813,68 +1767,68 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
     </row>
     <row r="19" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -1893,2211 +1847,2123 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+    <row r="20" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="6" t="s">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+    <row r="21" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7" t="s">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="6" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+    <row r="22" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="M22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="M23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="F24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="P25" s="7" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="P25" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+    <row r="26" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="O27" s="20" t="s">
+      <c r="O27" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="O28" s="20" t="s">
+      <c r="O28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P28" s="17" t="n">
+      <c r="P28" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+    <row r="29" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="M29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P31" s="22" t="s">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="P31" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+    <row r="32" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="N32" s="23" t="s">
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="O32" s="23" t="s">
+      <c r="O32" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="N33" s="23" t="s">
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O33" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="K34" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="O34" s="23" t="s">
+      <c r="O34" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="M35" s="6"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M36" s="10"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="M36" s="6"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="17" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M37" s="7"/>
-      <c r="P37" s="7"/>
-    </row>
-    <row r="38" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="M37" s="6"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="L44" s="14"/>
+    </row>
+    <row r="45" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="6"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="L50" s="14"/>
+    </row>
+    <row r="51" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+    </row>
+    <row r="55" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="P55" s="9"/>
+    </row>
+    <row r="56" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="14"/>
+    </row>
+    <row r="58" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M60" s="6"/>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M61" s="6"/>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="P63" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P66" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M67" s="6"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="P69" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M73" s="6"/>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M74" s="6"/>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M75" s="6"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M38" s="7"/>
-      <c r="P38" s="7"/>
-    </row>
-    <row r="39" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="C76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M76" s="6"/>
+      <c r="N76" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M77" s="6"/>
+      <c r="N77" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="I80" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="P39" s="7"/>
-    </row>
-    <row r="40" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="N40" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="O40" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="B82" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="L84" s="14"/>
+    </row>
+    <row r="85" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="L41" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="N41" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="O41" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="P42" s="7"/>
-    </row>
-    <row r="43" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="N43" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="O43" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="17" t="s">
+      <c r="B85" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="N44" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="O44" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26" t="s">
+      <c r="C85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M85" s="6"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M86" s="6"/>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M87" s="6"/>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M88" s="6"/>
+      <c r="P88" s="6"/>
+    </row>
+    <row r="89" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M89" s="6"/>
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="F90" s="14"/>
+      <c r="L90" s="14"/>
+    </row>
+    <row r="91" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-    </row>
-    <row r="46" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
+      <c r="B92" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="P94" s="8"/>
+    </row>
+    <row r="95" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F95" s="14"/>
+      <c r="L95" s="14"/>
+    </row>
+    <row r="96" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="P97" s="9"/>
+    </row>
+    <row r="98" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="P98" s="9"/>
+    </row>
+    <row r="99" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="P47" s="7"/>
-    </row>
-    <row r="48" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="B99" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="7"/>
-      <c r="P48" s="7"/>
-    </row>
-    <row r="49" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="B100" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B101" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M49" s="7"/>
-      <c r="P49" s="7"/>
-    </row>
-    <row r="50" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+      <c r="C103" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M103" s="19"/>
+      <c r="P103" s="19"/>
+    </row>
+    <row r="104" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M50" s="7"/>
-      <c r="P50" s="7"/>
-    </row>
-    <row r="51" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M51" s="7"/>
-      <c r="P51" s="7"/>
-    </row>
-    <row r="52" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M52" s="7"/>
-      <c r="P52" s="7"/>
-    </row>
-    <row r="53" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="19"/>
-    </row>
-    <row r="54" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="L54" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="14"/>
-      <c r="Z56" s="14"/>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="14"/>
-      <c r="AC56" s="14"/>
-      <c r="AD56" s="14"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="14"/>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="14"/>
-      <c r="AA57" s="14"/>
-      <c r="AB57" s="14"/>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="14"/>
-    </row>
-    <row r="58" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="O59" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="14"/>
-      <c r="AC59" s="14"/>
-      <c r="AD59" s="14"/>
-    </row>
-    <row r="60" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="P61" s="15"/>
-    </row>
-    <row r="62" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="P62" s="15"/>
-    </row>
-    <row r="63" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="P65" s="7"/>
-    </row>
-    <row r="66" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="6" t="s">
+      <c r="B104" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M104" s="6"/>
+      <c r="N104" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O66" s="6" t="s">
+      <c r="O104" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P66" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M67" s="7"/>
-      <c r="N67" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M68" s="7"/>
-      <c r="P68" s="7"/>
-    </row>
-    <row r="69" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M69" s="7"/>
-      <c r="P69" s="7"/>
-    </row>
-    <row r="70" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="P70" s="7"/>
-    </row>
-    <row r="71" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="P71" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="P72" s="7"/>
-    </row>
-    <row r="73" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I73" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J73" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K73" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N73" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="O73" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I74" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="N74" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="O74" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="P74" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="76" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="P76" s="7"/>
-    </row>
-    <row r="77" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P77" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F78" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I78" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="J78" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="K78" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="N78" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="O78" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I79" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="K79" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N79" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="O79" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F80" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I80" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="J80" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="K80" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="N80" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="O80" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="M81" s="10"/>
-      <c r="P81" s="10"/>
-    </row>
-    <row r="82" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="M82" s="10"/>
-      <c r="P82" s="10"/>
-    </row>
-    <row r="83" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="M83" s="7"/>
-      <c r="P83" s="7"/>
-    </row>
-    <row r="84" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M84" s="7"/>
-      <c r="P84" s="7"/>
-    </row>
-    <row r="85" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="P85" s="7"/>
-    </row>
-    <row r="86" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F86" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L86" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="N86" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="O86" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F87" s="24"/>
-      <c r="L87" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="N87" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="O87" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="88" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="P88" s="7"/>
-    </row>
-    <row r="89" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="P89" s="7"/>
-    </row>
-    <row r="90" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="P90" s="7"/>
-    </row>
-    <row r="91" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="J91" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K91" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="N91" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="O91" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="J92" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="N92" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="O92" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-    </row>
-    <row r="94" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="P94" s="7"/>
-    </row>
-    <row r="95" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M95" s="7"/>
-      <c r="P95" s="7"/>
-    </row>
-    <row r="96" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M96" s="7"/>
-      <c r="P96" s="7"/>
-    </row>
-    <row r="97" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M97" s="7"/>
-      <c r="P97" s="7"/>
-    </row>
-    <row r="98" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M98" s="7"/>
-      <c r="P98" s="7"/>
-    </row>
-    <row r="99" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M99" s="7"/>
-      <c r="P99" s="7"/>
-    </row>
-    <row r="100" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" s="19"/>
-    </row>
-    <row r="101" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="L101" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="P103" s="14"/>
-    </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="P104" s="14"/>
     </row>
     <row r="105" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="106" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="107" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="P107" s="15"/>
-    </row>
-    <row r="108" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="P108" s="15"/>
-    </row>
-    <row r="109" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="N109" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O109" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L110" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P110" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L111" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="112" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-    </row>
-    <row r="113" s="32" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="M113" s="31"/>
-      <c r="P113" s="31"/>
-    </row>
-    <row r="114" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M114" s="7"/>
-      <c r="N114" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O114" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4114,20 +3980,20 @@
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5084,16 +4950,16 @@
     <row r="1112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5124,18 +4990,13 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A5 A59 A116:A1048576 A61:A62 A56:A57 A87:A90 A41:A42 A35:A39 A48:A52 A95:A99 A30 A110:A114 A76 A103:A104 A20:A26 A65:A72 A78:A85 A33 A17:A18">
+  <conditionalFormatting sqref="A1 A106:A1048576 A53:A55 A45:A49 A100:A104 A93:A94 A20:A42 A17:A18 A4:A15 A58:A90">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:A108 A75 A29">
+  <conditionalFormatting sqref="A97:A98">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5154,10 +5015,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL1048576"/>
+  <dimension ref="A1:BL1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5170,506 +5031,538 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="C6" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="D6" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="7" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="B8" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D8" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="D9" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="35" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="B11" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="D11" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="35" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="B14" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C14" s="18" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="D14" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B15" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="36" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C16" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="38" t="s">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C17" s="18" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
+      <c r="D17" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="37" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C18" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="30" t="s">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C19" s="18" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="D19" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="30" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="B21" s="25" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" s="37" t="s">
+      <c r="C21" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="D21" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="7" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14" s="37" t="s">
+      <c r="C22" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="D22" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="37" t="s">
+      <c r="C23" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D23" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
+      <c r="C24" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="D24" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="30" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="B26" s="24" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="37" t="s">
+      <c r="C26" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D26" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
+      <c r="AD26" s="0"/>
+      <c r="AE26" s="0"/>
+      <c r="AF26" s="0"/>
+      <c r="AG26" s="0"/>
+      <c r="AH26" s="0"/>
+      <c r="AI26" s="0"/>
+      <c r="AJ26" s="0"/>
+      <c r="AK26" s="0"/>
+      <c r="AL26" s="0"/>
+      <c r="AM26" s="0"/>
+      <c r="AN26" s="0"/>
+      <c r="AO26" s="0"/>
+      <c r="AP26" s="0"/>
+      <c r="AQ26" s="0"/>
+      <c r="AR26" s="0"/>
+      <c r="AS26" s="0"/>
+      <c r="AT26" s="0"/>
+      <c r="AU26" s="0"/>
+      <c r="AV26" s="0"/>
+      <c r="AW26" s="0"/>
+      <c r="AX26" s="0"/>
+      <c r="AY26" s="0"/>
+      <c r="AZ26" s="0"/>
+      <c r="BA26" s="0"/>
+      <c r="BB26" s="0"/>
+      <c r="BC26" s="0"/>
+      <c r="BD26" s="0"/>
+      <c r="BE26" s="0"/>
+      <c r="BF26" s="0"/>
+      <c r="BG26" s="0"/>
+      <c r="BH26" s="0"/>
+      <c r="BI26" s="0"/>
+      <c r="BJ26" s="0"/>
+      <c r="BK26" s="0"/>
+      <c r="BL26" s="0"/>
+    </row>
+    <row r="27" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="B18" s="37" t="s">
+      <c r="C27" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="D27" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+      <c r="AC27" s="0"/>
+      <c r="AD27" s="0"/>
+      <c r="AE27" s="0"/>
+      <c r="AF27" s="0"/>
+      <c r="AG27" s="0"/>
+      <c r="AH27" s="0"/>
+      <c r="AI27" s="0"/>
+      <c r="AJ27" s="0"/>
+      <c r="AK27" s="0"/>
+      <c r="AL27" s="0"/>
+      <c r="AM27" s="0"/>
+      <c r="AN27" s="0"/>
+      <c r="AO27" s="0"/>
+      <c r="AP27" s="0"/>
+      <c r="AQ27" s="0"/>
+      <c r="AR27" s="0"/>
+      <c r="AS27" s="0"/>
+      <c r="AT27" s="0"/>
+      <c r="AU27" s="0"/>
+      <c r="AV27" s="0"/>
+      <c r="AW27" s="0"/>
+      <c r="AX27" s="0"/>
+      <c r="AY27" s="0"/>
+      <c r="AZ27" s="0"/>
+      <c r="BA27" s="0"/>
+      <c r="BB27" s="0"/>
+      <c r="BC27" s="0"/>
+      <c r="BD27" s="0"/>
+      <c r="BE27" s="0"/>
+      <c r="BF27" s="0"/>
+      <c r="BG27" s="0"/>
+      <c r="BH27" s="0"/>
+      <c r="BI27" s="0"/>
+      <c r="BJ27" s="0"/>
+      <c r="BK27" s="0"/>
+      <c r="BL27" s="0"/>
+    </row>
+    <row r="28" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" s="37" t="s">
+      <c r="C28" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="D28" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
+      <c r="AE28" s="0"/>
+      <c r="AF28" s="0"/>
+      <c r="AG28" s="0"/>
+      <c r="AH28" s="0"/>
+      <c r="AI28" s="0"/>
+      <c r="AJ28" s="0"/>
+      <c r="AK28" s="0"/>
+      <c r="AL28" s="0"/>
+      <c r="AM28" s="0"/>
+      <c r="AN28" s="0"/>
+      <c r="AO28" s="0"/>
+      <c r="AP28" s="0"/>
+      <c r="AQ28" s="0"/>
+      <c r="AR28" s="0"/>
+      <c r="AS28" s="0"/>
+      <c r="AT28" s="0"/>
+      <c r="AU28" s="0"/>
+      <c r="AV28" s="0"/>
+      <c r="AW28" s="0"/>
+      <c r="AX28" s="0"/>
+      <c r="AY28" s="0"/>
+      <c r="AZ28" s="0"/>
+      <c r="BA28" s="0"/>
+      <c r="BB28" s="0"/>
+      <c r="BC28" s="0"/>
+      <c r="BD28" s="0"/>
+      <c r="BE28" s="0"/>
+      <c r="BF28" s="0"/>
+      <c r="BG28" s="0"/>
+      <c r="BH28" s="0"/>
+      <c r="BI28" s="0"/>
+      <c r="BJ28" s="0"/>
+      <c r="BK28" s="0"/>
+      <c r="BL28" s="0"/>
+    </row>
+    <row r="29" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="20" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
-      <c r="AB20" s="0"/>
-      <c r="AC20" s="0"/>
-      <c r="AD20" s="0"/>
-      <c r="AE20" s="0"/>
-      <c r="AF20" s="0"/>
-      <c r="AG20" s="0"/>
-      <c r="AH20" s="0"/>
-      <c r="AI20" s="0"/>
-      <c r="AJ20" s="0"/>
-      <c r="AK20" s="0"/>
-      <c r="AL20" s="0"/>
-      <c r="AM20" s="0"/>
-      <c r="AN20" s="0"/>
-      <c r="AO20" s="0"/>
-      <c r="AP20" s="0"/>
-      <c r="AQ20" s="0"/>
-      <c r="AR20" s="0"/>
-      <c r="AS20" s="0"/>
-      <c r="AT20" s="0"/>
-      <c r="AU20" s="0"/>
-      <c r="AV20" s="0"/>
-      <c r="AW20" s="0"/>
-      <c r="AX20" s="0"/>
-      <c r="AY20" s="0"/>
-      <c r="AZ20" s="0"/>
-      <c r="BA20" s="0"/>
-      <c r="BB20" s="0"/>
-      <c r="BC20" s="0"/>
-      <c r="BD20" s="0"/>
-      <c r="BE20" s="0"/>
-      <c r="BF20" s="0"/>
-      <c r="BG20" s="0"/>
-      <c r="BH20" s="0"/>
-      <c r="BI20" s="0"/>
-      <c r="BJ20" s="0"/>
-      <c r="BK20" s="0"/>
-      <c r="BL20" s="0"/>
-    </row>
-    <row r="21" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0"/>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
-      <c r="AB21" s="0"/>
-      <c r="AC21" s="0"/>
-      <c r="AD21" s="0"/>
-      <c r="AE21" s="0"/>
-      <c r="AF21" s="0"/>
-      <c r="AG21" s="0"/>
-      <c r="AH21" s="0"/>
-      <c r="AI21" s="0"/>
-      <c r="AJ21" s="0"/>
-      <c r="AK21" s="0"/>
-      <c r="AL21" s="0"/>
-      <c r="AM21" s="0"/>
-      <c r="AN21" s="0"/>
-      <c r="AO21" s="0"/>
-      <c r="AP21" s="0"/>
-      <c r="AQ21" s="0"/>
-      <c r="AR21" s="0"/>
-      <c r="AS21" s="0"/>
-      <c r="AT21" s="0"/>
-      <c r="AU21" s="0"/>
-      <c r="AV21" s="0"/>
-      <c r="AW21" s="0"/>
-      <c r="AX21" s="0"/>
-      <c r="AY21" s="0"/>
-      <c r="AZ21" s="0"/>
-      <c r="BA21" s="0"/>
-      <c r="BB21" s="0"/>
-      <c r="BC21" s="0"/>
-      <c r="BD21" s="0"/>
-      <c r="BE21" s="0"/>
-      <c r="BF21" s="0"/>
-      <c r="BG21" s="0"/>
-      <c r="BH21" s="0"/>
-      <c r="BI21" s="0"/>
-      <c r="BJ21" s="0"/>
-      <c r="BK21" s="0"/>
-      <c r="BL21" s="0"/>
-    </row>
-    <row r="22" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0"/>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
-      <c r="AB22" s="0"/>
-      <c r="AC22" s="0"/>
-      <c r="AD22" s="0"/>
-      <c r="AE22" s="0"/>
-      <c r="AF22" s="0"/>
-      <c r="AG22" s="0"/>
-      <c r="AH22" s="0"/>
-      <c r="AI22" s="0"/>
-      <c r="AJ22" s="0"/>
-      <c r="AK22" s="0"/>
-      <c r="AL22" s="0"/>
-      <c r="AM22" s="0"/>
-      <c r="AN22" s="0"/>
-      <c r="AO22" s="0"/>
-      <c r="AP22" s="0"/>
-      <c r="AQ22" s="0"/>
-      <c r="AR22" s="0"/>
-      <c r="AS22" s="0"/>
-      <c r="AT22" s="0"/>
-      <c r="AU22" s="0"/>
-      <c r="AV22" s="0"/>
-      <c r="AW22" s="0"/>
-      <c r="AX22" s="0"/>
-      <c r="AY22" s="0"/>
-      <c r="AZ22" s="0"/>
-      <c r="BA22" s="0"/>
-      <c r="BB22" s="0"/>
-      <c r="BC22" s="0"/>
-      <c r="BD22" s="0"/>
-      <c r="BE22" s="0"/>
-      <c r="BF22" s="0"/>
-      <c r="BG22" s="0"/>
-      <c r="BH22" s="0"/>
-      <c r="BI22" s="0"/>
-      <c r="BJ22" s="0"/>
-      <c r="BK22" s="0"/>
-      <c r="BL22" s="0"/>
-    </row>
-    <row r="23" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="V23" s="0"/>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0"/>
-      <c r="Y23" s="0"/>
-      <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
-      <c r="AB23" s="0"/>
-      <c r="AC23" s="0"/>
-      <c r="AD23" s="0"/>
-      <c r="AE23" s="0"/>
-      <c r="AF23" s="0"/>
-      <c r="AG23" s="0"/>
-      <c r="AH23" s="0"/>
-      <c r="AI23" s="0"/>
-      <c r="AJ23" s="0"/>
-      <c r="AK23" s="0"/>
-      <c r="AL23" s="0"/>
-      <c r="AM23" s="0"/>
-      <c r="AN23" s="0"/>
-      <c r="AO23" s="0"/>
-      <c r="AP23" s="0"/>
-      <c r="AQ23" s="0"/>
-      <c r="AR23" s="0"/>
-      <c r="AS23" s="0"/>
-      <c r="AT23" s="0"/>
-      <c r="AU23" s="0"/>
-      <c r="AV23" s="0"/>
-      <c r="AW23" s="0"/>
-      <c r="AX23" s="0"/>
-      <c r="AY23" s="0"/>
-      <c r="AZ23" s="0"/>
-      <c r="BA23" s="0"/>
-      <c r="BB23" s="0"/>
-      <c r="BC23" s="0"/>
-      <c r="BD23" s="0"/>
-      <c r="BE23" s="0"/>
-      <c r="BF23" s="0"/>
-      <c r="BG23" s="0"/>
-      <c r="BH23" s="0"/>
-      <c r="BI23" s="0"/>
-      <c r="BJ23" s="0"/>
-      <c r="BK23" s="0"/>
-      <c r="BL23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+      <c r="AE29" s="0"/>
+      <c r="AF29" s="0"/>
+      <c r="AG29" s="0"/>
+      <c r="AH29" s="0"/>
+      <c r="AI29" s="0"/>
+      <c r="AJ29" s="0"/>
+      <c r="AK29" s="0"/>
+      <c r="AL29" s="0"/>
+      <c r="AM29" s="0"/>
+      <c r="AN29" s="0"/>
+      <c r="AO29" s="0"/>
+      <c r="AP29" s="0"/>
+      <c r="AQ29" s="0"/>
+      <c r="AR29" s="0"/>
+      <c r="AS29" s="0"/>
+      <c r="AT29" s="0"/>
+      <c r="AU29" s="0"/>
+      <c r="AV29" s="0"/>
+      <c r="AW29" s="0"/>
+      <c r="AX29" s="0"/>
+      <c r="AY29" s="0"/>
+      <c r="AZ29" s="0"/>
+      <c r="BA29" s="0"/>
+      <c r="BB29" s="0"/>
+      <c r="BC29" s="0"/>
+      <c r="BD29" s="0"/>
+      <c r="BE29" s="0"/>
+      <c r="BF29" s="0"/>
+      <c r="BG29" s="0"/>
+      <c r="BH29" s="0"/>
+      <c r="BI29" s="0"/>
+      <c r="BJ29" s="0"/>
+      <c r="BK29" s="0"/>
+      <c r="BL29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D30" s="6"/>
+    </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6641,11 +6534,12 @@
     <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1001" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6681,27 +6575,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" s="41"/>
+        <v>280</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="28"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -6722,26 +6616,26 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="H2" s="41"/>
+      <c r="A2" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
